--- a/PlanProfileDeactive/plandeactive.xlsx
+++ b/PlanProfileDeactive/plandeactive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\PlanProfileDeactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5098BA-E40F-46EE-84C3-31618E150295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEC172B-D727-452D-A830-80B3AC5081EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,360 +346,855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A69"/>
+  <dimension ref="A1:A168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:A69"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4537625</v>
+        <v>4488123</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4537584</v>
+        <v>4527818</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4537583</v>
+        <v>4460840</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4537575</v>
+        <v>4527820</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4537576</v>
+        <v>4527822</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4537626</v>
+        <v>4461026</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4353729</v>
+        <v>4461028</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4538374</v>
+        <v>4488125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4537633</v>
+        <v>4461096</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4353728</v>
+        <v>4461098</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4537631</v>
+        <v>4461100</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4538375</v>
+        <v>4534278</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4544616</v>
+        <v>4534274</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4541034</v>
+        <v>4534279</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4544615</v>
+        <v>4534275</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4537627</v>
+        <v>4534280</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4549007</v>
+        <v>4534276</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4549006</v>
+        <v>4534277</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4537628</v>
+        <v>4461094</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4584976</v>
+        <v>4527816</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4536973</v>
+        <v>4488119</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4536030</v>
+        <v>4514426</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4536031</v>
+        <v>4514428</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4536974</v>
+        <v>4514430</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4537537</v>
+        <v>4514432</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4541032</v>
+        <v>4461324</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4541035</v>
+        <v>4488121</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4541027</v>
+        <v>4460834</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4541033</v>
+        <v>4460836</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4541036</v>
+        <v>4460838</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4541028</v>
+        <v>4460966</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4541026</v>
+        <v>4460968</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4541029</v>
+        <v>4461038</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4541037</v>
+        <v>4461014</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>4541030</v>
+        <v>4461016</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>4541038</v>
+        <v>4460970</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4541031</v>
+        <v>4460972</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4537538</v>
+        <v>4461020</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4584977</v>
+        <v>4461040</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>4544090</v>
+        <v>4461042</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4544091</v>
+        <v>4461018</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4541023</v>
+        <v>4461044</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4536725</v>
+        <v>4461062</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>4541025</v>
+        <v>4461064</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>4541024</v>
+        <v>4461066</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5100522</v>
+        <v>4461068</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5112304</v>
+        <v>4461074</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5112305</v>
+        <v>4461076</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5100523</v>
+        <v>4461036</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4537754</v>
+        <v>4461054</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>4537758</v>
+        <v>4461030</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>4537753</v>
+        <v>4461056</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>4537757</v>
+        <v>4461058</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>4537752</v>
+        <v>4461060</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>4537756</v>
+        <v>4461070</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>4537751</v>
+        <v>4461302</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>4537755</v>
+        <v>4461022</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>4353783</v>
+        <v>4461304</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>4353871</v>
+        <v>4461306</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4353872</v>
+        <v>4461308</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>4353787</v>
+        <v>4461326</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4353869</v>
+        <v>4461328</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>4352974</v>
+        <v>4461024</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>4352975</v>
+        <v>4461046</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>4352976</v>
+        <v>4461048</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>4352977</v>
+        <v>4461050</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>4353870</v>
+        <v>4461052</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4353083</v>
+        <v>4461078</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>4353084</v>
+        <v>4461080</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4461082</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4461084</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4461102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4461006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4461008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4461010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4461012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4461314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4461310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4461312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4461316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4461118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4534281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4461120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4461122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4461124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4461108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4461318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4461320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4461322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4461086</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4461088</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4461090</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4461092</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4461330</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4461332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4461032</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4461034</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4461072</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4461110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4461112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4461114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4461116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4461104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4461106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4488127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>4488129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4488131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4488133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4488135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4488137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4488139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>4488141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4488111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4488113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4488115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>4488183</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>4488117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>4488185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>4488187</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>4488103</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>4488189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>4488105</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>4488107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>4488109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4513802</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>4488759</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>4488761</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>4488763</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>4488765</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>4488767</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>4488769</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>4488771</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>4488773</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>4488751</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>4488753</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>4488755</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>4488757</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>4513804</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>4513806</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>4513808</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>4516174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4516176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>4516178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4516180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>4516770</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>4516772</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>4516774</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>4516776</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>4520028</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>4520022</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>4520024</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4520026</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>4528372</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>4528374</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>4528376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>4528378</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>4521054</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>4521056</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>4521058</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>4521060</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>4523016</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>4523018</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>4523012</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4523014</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>4528480</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>4528474</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>4528476</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>4528478</v>
       </c>
     </row>
   </sheetData>

--- a/PlanProfileDeactive/plandeactive.xlsx
+++ b/PlanProfileDeactive/plandeactive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\PlanProfileDeactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BC1935-9019-4E82-A1A7-D5ED506F8482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C70BE1-F062-489B-B7C1-B81401F79D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,155 +346,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5091483</v>
+        <v>84378</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5092956</v>
+        <v>84370</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5092578</v>
+        <v>84369</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5092287</v>
+        <v>84368</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5095072</v>
+        <v>84374</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5093685</v>
+        <v>84373</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5093971</v>
+        <v>84372</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5095333</v>
+        <v>84377</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5098406</v>
+        <v>84376</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5098106</v>
+        <v>84375</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5097196</v>
+        <v>84384</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5097469</v>
+        <v>84380</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5097825</v>
+        <v>84381</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5099883</v>
+        <v>84379</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5098799</v>
+        <v>84383</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5102248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5100604</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5101159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5092021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5093318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5103891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5103241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5102703</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5099274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>5100271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4845212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5095743</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>5091713</v>
+        <v>84385</v>
       </c>
     </row>
   </sheetData>

--- a/PlanProfileDeactive/plandeactive.xlsx
+++ b/PlanProfileDeactive/plandeactive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\PlanProfileDeactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C70BE1-F062-489B-B7C1-B81401F79D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E67B13B-A138-4152-A17B-DCBC0DCC9CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,92 +346,4197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>84378</v>
+        <v>53376</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>84370</v>
+        <v>53375</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>84369</v>
+        <v>53374</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>84368</v>
+        <v>53378</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>84374</v>
+        <v>53377</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>84373</v>
+        <v>61326</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>84372</v>
+        <v>61347</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>84377</v>
+        <v>88056</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>84376</v>
+        <v>75190</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>84375</v>
+        <v>75201</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>84384</v>
+        <v>75203</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>84380</v>
+        <v>75199</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>84381</v>
+        <v>75192</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>84379</v>
+        <v>75196</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>84383</v>
+        <v>56455</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>84385</v>
+        <v>58002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>58014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>58037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>59605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>59683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>59628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>59630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>59682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>66276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>66278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>66275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>66288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>66287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>66290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>62969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>62958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>62962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>62963</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>62972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>62971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>64621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>64625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>64626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>62970</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>66326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>66329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>66320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>61308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>66362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>66363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>66356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>68038</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>66360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>68037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>68042</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>68043</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>61323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>66361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>68074</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>68044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>68075</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>61324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>68045</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>68035</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>69827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>69825</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>69828</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>69836</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>71574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>61325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>61321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>71581</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>71575</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>71584</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>71567</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>61322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71568</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>61327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>71570</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>61328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>71563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>71564</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>71585</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>61346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>61345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>71561</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>73325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>66318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>59629</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>73323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>73324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>73350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>73313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>73311</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>73315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>73318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>73319</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>73320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>75141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>75143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>75144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>75145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>75139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>75140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>76989</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>76992</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>76988</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>76990</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>76991</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>76993</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>76983</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>76981</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>76985</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>73322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>78794</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>73321</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>78781</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>78791</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>78790</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>78792</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>78793</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>78795</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>78784</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>78783</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>75161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>78839</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>80654</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>80661</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>80657</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>80660</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>80663</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>80664</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>80665</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>80656</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>80666</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>82487</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>82480</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>82483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>82486</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>82488</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>82489</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>73348</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>82490</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>82482</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>82491</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>75160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>84296</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>75188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>84295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>84297</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>84299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>84300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>84301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>69834</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>84320</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>84321</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>84317</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>84318</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>84322</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>75202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>84391</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>84393</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>84390</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>84392</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>84353</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>84349</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>84351</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>84360</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>84357</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>84361</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>84362</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>84363</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>84364</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>68073</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>86213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>86215</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>86220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>86219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>86221</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>86222</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>86223</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>88047</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>75163</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>75164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>75165</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>88055</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>88057</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>88058</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>88059</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>89882</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>89887</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>89889</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>89890</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>89891</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>89900</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>89897</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>89898</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>89899</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>89901</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>89904</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>75200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>91743</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>91749</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>91745</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>91748</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>91750</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>91751</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>91752</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>93593</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>93594</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>93595</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>93591</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>93590</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>93599</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>93598</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>88049</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>93615</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>93616</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>93614</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>93620</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>93617</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>93621</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>93619</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>89884</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>93643</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>93650</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>93653</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>93658</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>93666</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>93668</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>93654</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>93655</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>93659</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>93707</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>93657</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>93656</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>95588</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>95591</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>95583</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>95581</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>95594</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>95587</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>95589</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>95590</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>95595</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>95597</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>97488</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>97486</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>97498</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>97501</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>97495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>97496</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>97497</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>97503</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>97505</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>97502</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>99386</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>99400</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>99395</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>99391</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>99390</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>99387</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>99393</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>99394</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>99399</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>99403</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>99406</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>73349</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>89888</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>93645</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>93667</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>101305</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>101300</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>101301</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>101304</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>101306</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>101307</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>101311</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>101349</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>101312</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>101314</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>101308</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>107568</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>107566</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>107581</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>107575</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>107574</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>107576</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>107577</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>107582</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>107584</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>107585</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>107578</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>107586</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>103270</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>103269</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>103278</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>103272</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>103273</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>103274</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>91760</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>91761</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>103303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>103302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>103308</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>91757</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>91758</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>103305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>103306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>103309</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>103311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>91759</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>103336</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>103334</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>103340</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>103344</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>103343</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>103345</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>103349</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>103351</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>103352</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>103353</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>103346</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>91754</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>105428</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>105433</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>105426</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>105438</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>105432</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>105434</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>105435</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>105436</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>105439</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>105441</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>105442</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>105443</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>109681</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>109687</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>109683</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>109686</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>109688</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>109689</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>109690</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>109695</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>109696</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>109698</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>109699</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>113884</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>84389</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>111790</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>111788</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>111795</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>111794</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>111796</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>111797</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>111802</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>111804</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>111805</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>111806</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>111801</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>111800</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>113870</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>113880</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>113871</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>113873</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>113874</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>113875</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>113881</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>113883</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>97494</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>103332</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>103348</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>113896</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>113897</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>113901</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>99401</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>113903</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>113900</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>113895</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>113904</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>113905</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>113899</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>113923</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>113922</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>113935</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>113931</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>113929</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>113932</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>113933</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>113936</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>113938</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>113939</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>113941</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>116028</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>116039</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>116038</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>116033</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>116032</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>116034</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>116035</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>116040</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>116043</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>116044</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>116045</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>116036</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>103279</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>103281</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>122419</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>122429</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>122424</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>122420</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>122423</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>122425</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>122426</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>122430</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>122432</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>122433</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>122434</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>122427</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>105499</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>105520</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>105529</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>105531</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>105532</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>105533</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>118176</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>118168</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>105530</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>118175</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>118182</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>118177</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>105502</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>118178</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>118183</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>118185</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>118186</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>118187</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>118179</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>145942</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>145943</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>120299</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>120300</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>120312</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>120304</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>120303</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>120306</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>120307</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>120313</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>120315</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>120316</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>120308</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>113894</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>116029</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>124536</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>124537</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>124538</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>124539</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>124540</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>124545</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>124547</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>124548</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>124549</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>124544</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>118169</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>124562</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>124561</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>124566</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>124563</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>124564</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>124567</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>124569</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>124571</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>124588</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>124599</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>124593</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>124598</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>124594</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>124595</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>124596</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>124600</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>124602</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>124603</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>124604</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>124605</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>124606</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>124597</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>130967</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>130980</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>130975</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>130968</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>130979</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>130972</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>130971</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>130973</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>130974</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>130981</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>130984</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>130985</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>126718</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>126722</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>126717</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>126728</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>126721</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>126723</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>126724</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>126725</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>113885</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>126731</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>126733</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>126734</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>126735</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>99405</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>128847</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>128849</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>128850</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>128856</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>128858</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>128859</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>128860</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>128861</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>105501</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>128840</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>128855</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>128841</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>128848</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>105500</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>128854</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>84387</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>128851</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>68072</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>113925</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>113940</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>130983</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>145963</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>145962</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>145972</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>145967</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>145970</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>145971</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>145969</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>139511</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>139510</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>139517</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>139524</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>133094</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>133096</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>133097</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>139519</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>139520</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>139518</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>139525</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>139527</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>105498</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>105497</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>133098</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>133090</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>133101</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>133104</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>133105</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>133102</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>133106</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>133107</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>133091</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>139528</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>133095</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>139529</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>139521</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>133100</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>116042</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>139540</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>135209</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>135208</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>135214</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>135210</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>135211</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>135212</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>135215</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>135216</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>135213</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>135218</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>135223</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>135229</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>135225</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>135226</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>135230</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>135231</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>135232</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>135233</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>135247</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>135258</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>135257</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>135248</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>135254</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>135252</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>135255</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>135256</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>135259</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>135260</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>135261</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>135262</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>135263</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>137383</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>137393</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>137388</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>137387</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>137389</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>137390</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>137394</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>137396</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>137397</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>137384</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>99404</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>137398</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>137399</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>137391</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>124570</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>135224</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>141652</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>141651</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>141663</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>141656</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>141655</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>141657</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>141658</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>141664</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>93706</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>93705</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>101348</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>101347</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>89902</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>139539</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>141666</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>141667</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>141670</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>139538</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>143791</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>143790</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>143800</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>89896</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>89895</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>143795</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>143794</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>143796</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>143797</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>143801</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>89903</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>143803</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>143804</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>143805</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>143798</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>143808</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>126729</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>126732</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>145925</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>145926</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>145927</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>145923</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>145922</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>53373</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>53372</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>62968</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>62967</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>59681</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>148117</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>148119</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>148120</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>148114</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>148118</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>148113</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>148170</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>148121</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>135217</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>148171</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>148177</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>148179</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>59680</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>71573</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>148178</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>148180</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>148215</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>71583</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>78838</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>148181</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>71582</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>78837</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>145941</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>148242</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>148244</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>148245</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>148251</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>148246</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>148239</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>148238</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>148243</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>71572</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>148284</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>148285</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>148286</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>148287</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>148292</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>148281</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>148288</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>71580</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>148280</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>71579</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>148214</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>148213</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>145940</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>137400</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>148338</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>148339</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>148340</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>148344</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>148335</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>148346</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>148348</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>148349</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>148351</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>148360</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>148365</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>148367</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>148368</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>148369</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>148372</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>148385</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>148386</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>148387</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>148388</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>148382</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>148393</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>148397</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>148398</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>148399</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>148400</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>148433</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>148434</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>148435</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>148436</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>148437</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>148438</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>148439</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>148440</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>148441</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>148442</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>148443</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>148383</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>148384</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>148370</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>148381</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>148444</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>135228</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>126727</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>109694</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>95593</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>84394</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>101310</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>113879</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>148482</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>84388</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>148490</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>148483</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>148378</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>148377</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>148486</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>148487</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>148488</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>148489</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>148379</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>148493</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>148494</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>148495</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>148496</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>148497</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>148498</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>148499</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>148500</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>148380</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>148501</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>111798</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>141659</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>113934</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>148336</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>148562</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>148569</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>148570</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>148571</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>148572</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>148573</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>148576</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>148577</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>148578</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>148579</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>148580</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>148581</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>148582</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>148583</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>148584</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>148390</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>148391</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>148563</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>148394</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>148395</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>148396</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>148389</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>148392</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>148347</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>148607</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>148611</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>148612</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>148613</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>148614</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>148615</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>148619</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>148621</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>148622</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>148623</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>148624</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>148625</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>148626</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>148627</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>148628</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>148608</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>148361</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>148642</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>148643</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>148646</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>148647</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>148648</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>148649</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>148650</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>148653</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>148654</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>148655</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>148656</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>148657</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>148658</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>148659</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>148660</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>148661</v>
       </c>
     </row>
   </sheetData>
